--- a/artfynd/A 17716-2024 artfynd.xlsx
+++ b/artfynd/A 17716-2024 artfynd.xlsx
@@ -3981,7 +3981,7 @@
         <v>122138915</v>
       </c>
       <c r="B34" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
